--- a/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/bauxite_at_hand_cost_to_alumina_production_cost_calcs_excluding_common_elements.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_trade_bauxite/bauxite_at_hand_cost_to_alumina_production_cost_calcs_excluding_common_elements.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4032,39 +4032,77 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.977963073257891</v>
+      </c>
+      <c r="E95" t="n">
+        <v>120.6514630215035</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1288058368076236</v>
+      </c>
+      <c r="G95" t="n">
+        <v>31.28141751042287</v>
+      </c>
+      <c r="H95" t="n">
+        <v>50.92108392857143</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.234285714285714</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.142768910065515</v>
+      </c>
+      <c r="K95" t="n">
+        <v>9.183295328852205</v>
+      </c>
+      <c r="L95" t="n">
+        <v>213.2715455036358</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>0.4040000000000001</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B96" t="n">
         <v>0.012</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C96" t="n">
         <v>0.3920000000000001</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D96" t="n">
         <v>2.772848269742679</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E96" t="n">
         <v>150.2739624191032</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F96" t="n">
         <v>0.06494676131322094</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G96" t="n">
         <v>15.77278489035366</v>
       </c>
-      <c r="H95" t="n">
-        <v>50.92108392857143</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1.234285714285714</v>
-      </c>
-      <c r="J95" t="n">
+      <c r="H96" t="n">
+        <v>50.92108392857143</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.234285714285714</v>
+      </c>
+      <c r="J96" t="n">
         <v>1.8737950310559</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K96" t="n">
         <v>8.030550133096714</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L96" t="n">
         <v>226.2326670854107</v>
       </c>
     </row>
